--- a/tests/traces/h100/Falconsai_nsfw_image_detection__1016002_perf_report.xlsx
+++ b/tests/traces/h100/Falconsai_nsfw_image_detection__1016002_perf_report.xlsx
@@ -11,10 +11,12 @@
     <sheet name="ops_summary_by_category" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ops_summary" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="ops_unique_args" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GEMM" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SDPA_fwd" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="CONV_fwd" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="BinaryElementwise" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="unified_perf_summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GEMM" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SDPA_fwd" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="CONV_fwd" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="BinaryElementwise" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Normalization" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -566,13 +568,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,33 +585,529 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>op category</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count</t>
+          <t>param: op_shape</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_direct_kernel_time_ms</t>
+          <t>param: dtype_in_out</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Percentage (%)</t>
+          <t>param: stride_input</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cumulative Percentage (%)</t>
+          <t>param: stride_output</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param: num_channels</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>param: has_bias</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>param: is_affine</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>param: is_training</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>GFLOPS_first</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Data Moved (MB)_first</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>FLOPS/Byte_first</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_mean</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_median</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_std</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_min</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_max</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_mean</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_median</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_std</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_min</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_max</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Compute Spec</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>kernel_details__summarize_kernel_stats</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>trunc_kernel_details</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Input Dims_first</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Input type_first</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Input Strides_first</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Concrete Inputs_first</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_mean</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_median</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_std</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_min</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_max</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_sum</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>name_count</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>UID_first</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>aten::layer_norm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(4, 197, 768)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', None)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>(151296, 768, 1)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0.003030528</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.3173828125</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.247155499367889</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5466261436434106</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5463023981557714</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0136524750083966</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.5237086762430939</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5709334820168646</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.6817278011431411</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.6813240401778364</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.01702675928670446</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.6531461556432518</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.7120428318705904</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 7, 'count': 25, 'total_duration_us': np.float64(111.20100000000001), 'mean_duration_us': np.float64(4.448040000000001), 'median_duration_us': np.float64(4.448), 'std_dev_duration_us': np.float64(0.10934037863479323), 'min_duration_us': np.float64(4.256), 'max_duration_us': np.float64(4.64)}]</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 7, 'mean_duration_us': np.float64(4.45)}]</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>[[4, 197, 768], [], [768], [768], [], []]</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'ScalarList', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[[151296, 768, 1], [], [1], [1], [], []]</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>['', '[768]', '', '', '9.9999999999999998e-13', 'True']</t>
+        </is>
+      </c>
+      <c r="AD2" t="n">
+        <v>4.448037109375</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4.447998046875</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.1115342775722907</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>4.256103515625</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>4.639892578125</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>111.200927734375</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aten::native_layer_norm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(4, 197, 768)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', None)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>(151296, 768, 1)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0.003030528</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.3173828125</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.247155499367889</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5466261436434106</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5463023981557714</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0136524750083966</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5237086762430939</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.5709334820168646</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.6817278011431411</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.6813240401778364</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.01702675928670446</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.6531461556432518</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.7120428318705904</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 7, 'count': 25, 'total_duration_us': np.float64(111.20100000000001), 'mean_duration_us': np.float64(4.448040000000001), 'median_duration_us': np.float64(4.448), 'std_dev_duration_us': np.float64(0.10934037863479323), 'min_duration_us': np.float64(4.256), 'max_duration_us': np.float64(4.64)}]</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 7, 'mean_duration_us': np.float64(4.45)}]</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>[[4, 197, 768], [], [768], [768], []]</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'ScalarList', 'c10::BFloat16', 'c10::BFloat16', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>[[151296, 768, 1], [], [1], [1], []]</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>['', '[768]', '', '', '9.9999999999999998e-13']</t>
+        </is>
+      </c>
+      <c r="AD3" t="n">
+        <v>4.448037109375</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>4.447998046875</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.1115342775722907</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.256103515625</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>4.639892578125</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>111.200927734375</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>op category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>total_direct_kernel_time_ms</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage (%)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative Percentage (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>GEMM</t>
         </is>
       </c>
@@ -620,10 +1118,10 @@
         <v>0.73503662109375</v>
       </c>
       <c r="D2" t="n">
-        <v>59.98786578240298</v>
+        <v>59.98786578240299</v>
       </c>
       <c r="E2" t="n">
-        <v>59.98786578240298</v>
+        <v>59.98786578240299</v>
       </c>
     </row>
     <row r="3">
@@ -633,16 +1131,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>0.24131298828125</v>
+        <v>0.130112060546875</v>
       </c>
       <c r="D3" t="n">
-        <v>19.69405433300158</v>
+        <v>10.61871558609367</v>
       </c>
       <c r="E3" t="n">
-        <v>79.68192011540457</v>
+        <v>70.60658136849666</v>
       </c>
     </row>
     <row r="4">
@@ -661,7 +1159,7 @@
         <v>10.25309507229224</v>
       </c>
       <c r="E4" t="n">
-        <v>89.93501518769681</v>
+        <v>80.8596764407889</v>
       </c>
     </row>
     <row r="5">
@@ -680,7 +1178,26 @@
         <v>10.06498481230318</v>
       </c>
       <c r="E5" t="n">
-        <v>99.99999999999999</v>
+        <v>90.92466125309208</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NORM_fwd</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.111200927734375</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.075338746907917</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,15 +1237,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Categories</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>total_direct_kernel_time_ms</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Percentage (%)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Cumulative Percentage (%)</t>
         </is>
@@ -746,15 +1268,20 @@
       <c r="C2" t="n">
         <v>73</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'GEMM'}</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>0.73503662109375</v>
-      </c>
-      <c r="E2" t="n">
-        <v>59.98786578240299</v>
       </c>
       <c r="F2" t="n">
         <v>59.98786578240299</v>
       </c>
+      <c r="G2" t="n">
+        <v>59.98786578240299</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -768,13 +1295,18 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'CONV_fwd'}</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>0.125632080078125</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>10.25309507229224</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>70.24096085469523</v>
       </c>
     </row>
@@ -790,13 +1322,18 @@
       <c r="C4" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'other'}</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>0.12284814453125</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>10.02589230832071</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>80.26685316301594</v>
       </c>
     </row>
@@ -812,13 +1349,18 @@
       <c r="C5" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'NORM_fwd'}</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>0.111200927734375</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>9.075338746907917</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>89.34219190992386</v>
       </c>
     </row>
@@ -834,13 +1376,18 @@
       <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'elementwise'}</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>0.060541259765625</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4.94089799187665</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>94.28308990180051</v>
       </c>
     </row>
@@ -856,13 +1403,18 @@
       <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{'elementwise'}</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>0.05731298828125</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4.677432048879577</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>98.96052195068009</v>
       </c>
     </row>
@@ -878,13 +1430,18 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{'other'}</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>0.007263916015625</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.5928232777729626</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>99.55334522845305</v>
       </c>
     </row>
@@ -900,13 +1457,18 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'elementwise'}</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>0.003968017578125</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.3238381586274984</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>99.87718338708055</v>
       </c>
     </row>
@@ -922,13 +1484,18 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{'elementwise'}</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>0.0015048828125</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1228166129194549</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -943,7 +1510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,80 +1526,85 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>op category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Input Dims</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Input type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Input Strides</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Concrete Inputs</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>operation_count</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>total_direct_kernel_time_mean</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>total_direct_kernel_time_median</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>total_direct_kernel_time_std</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>total_direct_kernel_time_min</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>total_direct_kernel_time_max</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>total_direct_kernel_time_sum</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ex_UID</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>kernel_details_summary</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>trunc_kernel_details</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Percentage (%)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Cumulative Percentage (%)</t>
         </is>
@@ -1046,64 +1618,69 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>((768,), (788, 768), (768, 768), (), ())</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>((1,), (768, 1), (1, 768), (), ())</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>('', '', '', '1', '1')</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>48</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>8.315348307291666</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>8.256103515625</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.1344482499064346</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>8.1279296875</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>8.639892578125</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>399.13671875</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>30</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_128x64_64x6_tn_align8&gt;(cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_128x64_64x6_tn_align8::Params)', 'stream': 7, 'count': 48, 'total_duration_us': np.float64(399.136), 'mean_duration_us': np.float64(8.315333333333333), 'median_duration_us': np.float64(8.256), 'std_dev_duration_us': np.float64(0.13305517861231703), 'min_duration_us': np.float64(8.128), 'max_duration_us': np.float64(8.64)}]</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_b...', 'stream': 7, 'mean_duration_us': np.float64(8.32)}]</t>
         </is>
-      </c>
-      <c r="P2" t="n">
-        <v>32.57437687604667</v>
       </c>
       <c r="Q2" t="n">
         <v>32.57437687604667</v>
       </c>
+      <c r="R2" t="n">
+        <v>32.57437687604667</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1113,62 +1690,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>((3072,), (788, 768), (768, 3072), (), ())</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>((1,), (768, 1), (1, 768), (), ())</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>('', '', '', '1', '1')</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>12</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>13.88246663411458</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>13.887451171875</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.1063651301764554</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>13.760009765625</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>14.176025390625</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>166.589599609375</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>104</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize128x128x64_warpgroupsize1x1x1_execute_segment_k_off_kernel__5x_cublas', 'stream': 7, 'count': 12, 'total_duration_us': np.float64(166.59), 'mean_duration_us': np.float64(13.8825), 'median_duration_us': np.float64(13.8875), 'std_dev_duration_us': np.float64(0.10183278777813505), 'min_duration_us': np.float64(13.76), 'max_duration_us': np.float64(14.176)}]</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize128x128x64_warp...', 'stream': 7, 'mean_duration_us': np.float64(13.88)}]</t>
         </is>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>13.59572333585382</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>46.1701002119005</v>
       </c>
     </row>
@@ -1180,62 +1762,67 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>((768,), (788, 3072), (3072, 768), (), ())</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>((1,), (3072, 1), (1, 3072), (), ())</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>('', '', '', '1', '1')</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>12</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>13.53594970703125</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>13.4879150390625</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.1773776572326171</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>13.343994140625</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>13.951904296875</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>162.431396484375</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>114</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize128x64x64_warpgroupsize1x1x1_execute_segment_k_off_kernel__5x_cublas', 'stream': 7, 'count': 12, 'total_duration_us': np.float64(162.43200000000002), 'mean_duration_us': np.float64(13.536000000000001), 'median_duration_us': np.float64(13.488), 'std_dev_duration_us': np.float64(0.16983128883296716), 'min_duration_us': np.float64(13.344), 'max_duration_us': np.float64(13.952)}]</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize128x64x64_warpg...', 'stream': 7, 'mean_duration_us': np.float64(13.54)}]</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>13.25636373961045</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>59.42646395151095</v>
       </c>
     </row>
@@ -1247,37 +1834,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CONV_fwd</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>((4, 3, 224, 224), (768, 3, 16, 16), (), (), (), (), (), (), ())</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'ScalarList', 'ScalarList', 'ScalarList', 'Scalar', 'Scalar', 'Scalar', 'Scalar')</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>((150528, 50176, 224, 1), (768, 256, 16, 1), (), (), (), (), (), (), ())</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>('', '', '[0, 0]', '[16, 16]', '[1, 1]', '1', 'False', 'False', 'True')</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>125.632080078125</v>
       </c>
       <c r="H5" t="n">
         <v>125.632080078125</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="I5" t="n">
         <v>125.632080078125</v>
       </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>125.632080078125</v>
       </c>
@@ -1285,22 +1874,25 @@
         <v>125.632080078125</v>
       </c>
       <c r="M5" t="n">
+        <v>125.632080078125</v>
+      </c>
+      <c r="N5" t="n">
         <v>4</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>[{'name': 'Memset (Device)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.272), 'mean_duration_us': np.float64(2.272), 'median_duration_us': np.float64(2.272), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.272), 'max_duration_us': np.float64(2.272)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16, __nv_bfloat16, float, false, true, (cudnnKernelDataType_t)0&gt;(cudnn::engines_precompiled::nchw2nhwc_params_t&lt;float&gt;, __nv_bfloat16 const*, __nv_bfloat16*)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(10.464), 'mean_duration_us': np.float64(10.464), 'median_duration_us': np.float64(10.464), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(10.464), 'max_duration_us': np.float64(10.464)}, {'name': 'Memset (Device)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.112), 'mean_duration_us': np.float64(2.112), 'median_duration_us': np.float64(2.112), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.112), 'max_duration_us': np.float64(2.112)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16, __nv_bfloat16, float, false, true, (cudnnKernelDataType_t)0&gt;(cudnn::engines_precompiled::nchw2nhwc_params_t&lt;float&gt;, __nv_bfloat16 const*, __nv_bfloat16*)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(10.4), 'mean_duration_us': np.float64(10.4), 'median_duration_us': np.float64(10.4), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(10.4), 'max_duration_us': np.float64(10.4)}, {'name': 'void cutlass__5x_cudnn::Kernel&lt;cutlass_tensorop_bf16_s16816fprop_optimized_bf16_256x64_32x4_nhwc_align8&gt;(cutlass_tensorop_bf16_s16816fprop_optimized_bf16_256x64_32x4_nhwc_align8::Params)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(98.176), 'mean_duration_us': np.float64(98.176), 'median_duration_us': np.float64(98.176), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(98.176), 'max_duration_us': np.float64(98.176)}, {'name': 'void cudnn::engines_precompiled::nhwcToNchwKernel&lt;__nv_bfloat16, __nv_bfloat16, float, true, false, (cudnnKernelDataType_t)0&gt;(cudnn::engines_precompiled::nhwc2nchw_params_t&lt;float&gt;, __nv_bfloat16 const*, __nv_bfloat16*)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.208), 'mean_duration_us': np.float64(2.208), 'median_duration_us': np.float64(2.208), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.208), 'max_duration_us': np.float64(2.208)}]</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>[{'name': 'Memset (Device)', 'stream': 7, 'mean_duration_us': np.float64(2.27)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16,...', 'stream': 7, 'mean_duration_us': np.float64(10.46)}, {'name': 'Memset (Device)', 'stream': 7, 'mean_duration_us': np.float64(2.11)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16,...', 'stream': 7, 'mean_duration_us': np.float64(10.4)}, {'name': 'void cutlass__5x_cudnn::Kernel&lt;cutlass_tensorop_bf16_s16816fprop...', 'stream': 7, 'mean_duration_us': np.float64(98.18)}, {'name': 'void cudnn::engines_precompiled::nhwcToNchwKernel&lt;__nv_bfloat16,...', 'stream': 7, 'mean_duration_us': np.float64(2.21)}]</t>
         </is>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>10.25309507229224</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>69.67955902380319</v>
       </c>
     </row>
@@ -1312,62 +1904,67 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>((4, 197, 12, 64), (4, 197, 12, 64), (4, 197, 12, 64), (), (), (), (), (), (), (), (), (), (), (), ())</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', '', '', 'Scalar', 'Scalar', 'Scalar', 'Scalar', 'Scalar', 'Scalar', '', '', '', '')</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>((151296, 768, 64, 1), (151296, 768, 64, 1), (151296, 768, 64, 1), (), (), (), (), (), (), (), (), (), (), (), ())</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>('', '', '', '', '', '197', '197', '0.', 'False', 'False', '0.125', '', '', '', '')</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>12</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>10.23734537760417</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>10.2239990234375</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.228442528412397</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>10.01611328125</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>10.847900390625</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>122.84814453125</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>68</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_kernel_traits&lt;64, 128, 128, 4, false, false, cutlass::bfloat16_t, pytorch_flash::Flash_kernel_traits&lt;64, 128, 128, 4, cutlass::bfloat16_t&gt; &gt;, false, false, false, false, false, true, false&gt;(pytorch_flash::Flash_fwd_params)', 'stream': 7, 'count': 12, 'total_duration_us': np.float64(122.848), 'mean_duration_us': np.float64(10.237333333333334), 'median_duration_us': np.float64(10.224), 'std_dev_duration_us': np.float64(0.21878045819699932), 'min_duration_us': np.float64(10.016), 'max_duration_us': np.float64(10.848)}]</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_ke...', 'stream': 7, 'mean_duration_us': np.float64(10.24)}]</t>
         </is>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>10.02589230832071</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>79.7054513321239</v>
       </c>
     </row>
@@ -1379,62 +1976,67 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>NORM_fwd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>((4, 197, 768), (), (768,), (768,), ())</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'ScalarList', 'c10::BFloat16', 'c10::BFloat16', 'Scalar')</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>((151296, 768, 1), (), (1,), (1,), ())</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>('', '[768]', '', '', '9.9999999999999998e-13')</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>25</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>4.448037109375</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>4.447998046875</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.1115342775722907</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>4.256103515625</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>4.639892578125</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>111.200927734375</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>18</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 7, 'count': 25, 'total_duration_us': np.float64(111.20100000000001), 'mean_duration_us': np.float64(4.448040000000001), 'median_duration_us': np.float64(4.448), 'std_dev_duration_us': np.float64(0.10934037863479323), 'min_duration_us': np.float64(4.256), 'max_duration_us': np.float64(4.64)}]</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 7, 'mean_duration_us': np.float64(4.45)}]</t>
         </is>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>9.075338746907917</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>88.78079007903182</v>
       </c>
     </row>
@@ -1446,62 +2048,67 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>((4, 197, 3072), ())</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>('c10::BFloat16', '')</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>((605184, 3072, 1), ())</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>('', '')</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>12</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>5.04510498046875</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>5.055419921875</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.03943788318148379</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>4.990966796875</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>5.1201171875</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>60.541259765625</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>107</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 7, 'count': 12, 'total_duration_us': np.float64(60.541999999999994), 'mean_duration_us': np.float64(5.045166666666666), 'median_duration_us': np.float64(5.0555), 'std_dev_duration_us': np.float64(0.037739972914080884), 'min_duration_us': np.float64(4.991), 'max_duration_us': np.float64(5.12)}]</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::Ge...', 'stream': 7, 'mean_duration_us': np.float64(5.05)}]</t>
         </is>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>4.940897991876649</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>93.72168807090847</v>
       </c>
     </row>
@@ -1513,62 +2120,67 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>((4, 197, 768), (4, 197, 768), ())</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'Scalar')</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>((151296, 768, 1), (151296, 768, 1), ())</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>('', '', '1')</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>24</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>2.230662027994792</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>2.2244873046875</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.03450867810431143</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>2.176025390625</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>2.303955078125</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>53.535888671875</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>90</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 7, 'count': 24, 'total_duration_us': np.float64(53.536), 'mean_duration_us': np.float64(2.2306666666666666), 'median_duration_us': np.float64(2.2245), 'std_dev_duration_us': np.float64(0.033798011118341686), 'min_duration_us': np.float64(2.176), 'max_duration_us': np.float64(2.304)}]</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CU...', 'stream': 7, 'mean_duration_us': np.float64(2.23)}]</t>
         </is>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>4.369175102338875</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>98.09086317324734</v>
       </c>
     </row>
@@ -1580,37 +2192,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>(((4, 1, 768), (4, 196, 768)), ())</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>('TensorList', 'Scalar')</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>(((0, 768, 1), (150528, 1, 196)), ())</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>('', '1')</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.263916015625</v>
       </c>
       <c r="H10" t="n">
         <v>7.263916015625</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+      <c r="I10" t="n">
         <v>7.263916015625</v>
       </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>7.263916015625</v>
       </c>
@@ -1618,22 +2232,25 @@
         <v>7.263916015625</v>
       </c>
       <c r="M10" t="n">
+        <v>7.263916015625</v>
+      </c>
+      <c r="N10" t="n">
         <v>14</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::(anonymous namespace)::CatArrayBatchedCopy&lt;at::native::(anonymous namespace)::OpaqueType&lt;2u&gt;, unsigned int, 3, 64, 64&gt;(at::native::(anonymous namespace)::OpaqueType&lt;2u&gt;*, at::native::(anonymous namespace)::CatArrInputTensorMetadata&lt;at::native::(anonymous namespace)::OpaqueType&lt;2u&gt;, unsigned int, 64, 64&gt;, at::native::(anonymous namespace)::TensorSizeStride&lt;unsigned int, 4u&gt;, int, unsigned int)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(7.264), 'mean_duration_us': np.float64(7.264), 'median_duration_us': np.float64(7.264), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(7.264), 'max_duration_us': np.float64(7.264)}]</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::(anonymous namespace)::CatArrayBatchedCopy&lt;at::...', 'stream': 7, 'mean_duration_us': np.float64(7.26)}]</t>
         </is>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>0.5928232777729626</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>98.68368645102031</v>
       </c>
     </row>
@@ -1645,37 +2262,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>((768,), (4, 768), (768, 768), (), ())</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>((1,), (151296, 1), (1, 768), (), ())</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>('', '', '', '1', '1')</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.87890625</v>
       </c>
       <c r="H11" t="n">
         <v>6.87890625</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+      <c r="I11" t="n">
         <v>6.87890625</v>
       </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>6.87890625</v>
       </c>
@@ -1683,22 +2302,25 @@
         <v>6.87890625</v>
       </c>
       <c r="M11" t="n">
+        <v>6.87890625</v>
+      </c>
+      <c r="N11" t="n">
         <v>1256</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8&gt;(cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8::Params)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(6.879), 'mean_duration_us': np.float64(6.879), 'median_duration_us': np.float64(6.879), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(6.879), 'max_duration_us': np.float64(6.879)}]</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_b...', 'stream': 7, 'mean_duration_us': np.float64(6.88)}]</t>
         </is>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>0.5614018308920443</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>99.24508828191234</v>
       </c>
     </row>
@@ -1710,37 +2332,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>((4, 768, 14, 14), (1, 768, 1, 1), ())</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'Scalar')</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>((150528, 196, 14, 1), (768, 1, 1, 1), ())</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>('', '', '1')</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.968017578125</v>
       </c>
       <c r="H12" t="n">
         <v>3.968017578125</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
+      <c r="I12" t="n">
         <v>3.968017578125</v>
       </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>3.968017578125</v>
       </c>
@@ -1748,22 +2372,25 @@
         <v>3.968017578125</v>
       </c>
       <c r="M12" t="n">
+        <v>3.968017578125</v>
+      </c>
+      <c r="N12" t="n">
         <v>7</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1})', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.968), 'mean_duration_us': np.float64(3.968), 'median_duration_us': np.float64(3.968), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.968), 'max_duration_us': np.float64(3.968)}]</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kern...', 'stream': 7, 'mean_duration_us': np.float64(3.97)}]</t>
         </is>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>0.3238381586274984</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>99.56892644053984</v>
       </c>
     </row>
@@ -1775,37 +2402,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>((4, 197, 768), (1, 197, 768), ())</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'Scalar')</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>((151296, 768, 1), (151296, 768, 1), ())</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>('', '', '1')</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.777099609375</v>
       </c>
       <c r="H13" t="n">
         <v>3.777099609375</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+      <c r="I13" t="n">
         <v>3.777099609375</v>
       </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>3.777099609375</v>
       </c>
@@ -1813,22 +2442,25 @@
         <v>3.777099609375</v>
       </c>
       <c r="M13" t="n">
+        <v>3.777099609375</v>
+      </c>
+      <c r="N13" t="n">
         <v>15</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1})', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.777), 'mean_duration_us': np.float64(3.777), 'median_duration_us': np.float64(3.777), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.777), 'max_duration_us': np.float64(3.777)}]</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kern...', 'stream': 7, 'mean_duration_us': np.float64(3.78)}]</t>
         </is>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>0.3082569465407019</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>99.87718338708055</v>
       </c>
     </row>
@@ -1840,37 +2472,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>((4, 768),)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>('c10::BFloat16',)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>((768, 1),)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>('',)</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.5048828125</v>
       </c>
       <c r="H14" t="n">
         <v>1.5048828125</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
+      <c r="I14" t="n">
         <v>1.5048828125</v>
       </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>1.5048828125</v>
       </c>
@@ -1878,22 +2512,25 @@
         <v>1.5048828125</v>
       </c>
       <c r="M14" t="n">
+        <v>1.5048828125</v>
+      </c>
+      <c r="N14" t="n">
         <v>1258</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::tanh_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::tanh_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(1.505), 'mean_duration_us': np.float64(1.505), 'median_duration_us': np.float64(1.505), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(1.505), 'max_duration_us': np.float64(1.505)}]</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::ta...', 'stream': 7, 'mean_duration_us': np.float64(1.5)}]</t>
         </is>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>0.1228166129194549</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1908,7 +2545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AN13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1924,177 +2561,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>param: M</t>
+          <t>op category</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>param: N</t>
+          <t>Input Dims</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>param: K</t>
+          <t>Input type</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>param: bias</t>
+          <t>Input Strides</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>param: stride_A</t>
+          <t>Concrete Inputs</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>param: stride_B</t>
+          <t>ex_UID</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>param: dtype_A_B</t>
+          <t>operation_count</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>param: B</t>
+          <t>total_duration_us</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>GFLOPS_first</t>
+          <t>mean_duration_us</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Data Moved (MB)_first</t>
+          <t>std_duration_us</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FLOPS/Byte_first</t>
+          <t>GFLOPS</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Data Moved (MB)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>FLOPS/Byte</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Compute Spec</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>TB/s_mean</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_std</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_mean</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_std</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_mean</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_std</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_sum</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>duration_us_median</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>duration_us_min</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>duration_us_max</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>TB/s_median</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>TB/s_std</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>TB/s_min</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>TB/s_max</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>TFLOPS/s_mean</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_median</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>TFLOPS/s_std</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_min</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_max</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>kernel_details__summarize_kernel_stats</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_median</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_min</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_max</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>kernel_details_summary</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>trunc_kernel_details</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Input Dims_first</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Input type_first</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Input Strides_first</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Concrete Inputs_first</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Kernel Time (µs)_mean</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Kernel Time (µs)_median</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Kernel Time (µs)_std</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Kernel Time (µs)_min</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Kernel Time (µs)_max</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Kernel Time (µs)_sum</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>name_count</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>UID_first</t>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>perf_params</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>has_perf_model</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage (%)</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative Percentage (%)</t>
         </is>
       </c>
     </row>
@@ -2104,128 +2761,140 @@
           <t>aten::addmm</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>788</v>
-      </c>
-      <c r="C2" t="n">
-        <v>768</v>
-      </c>
-      <c r="D2" t="n">
-        <v>768</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>((768,), (788, 768), (768, 768), (), ())</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>((1,), (768, 1), (1, 768), (), ())</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(768, 1)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>(1, 768)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>('c10::BFloat16', 'c10::BFloat16')</t>
-        </is>
+          <t>('', '', '', '1', '1')</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="n">
+        <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1154.879</v>
       </c>
       <c r="J2" t="n">
+        <v>24.05997916666666</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.557746534509176</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.930167808</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.43505859375</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>258.2422174840085</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>0.4332748290550287</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.4362735996688056</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>0.006921872667601486</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.4168940721693182</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.4431534398654331</v>
       </c>
       <c r="R2" t="n">
         <v>111.8898526351753</v>
       </c>
       <c r="S2" t="n">
+        <v>1.78751974682336</v>
+      </c>
+      <c r="T2" t="n">
+        <v>8.315348307291666</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1344482499064346</v>
+      </c>
+      <c r="V2" t="n">
+        <v>399.13671875</v>
+      </c>
+      <c r="W2" t="n">
+        <v>25.2705</v>
+      </c>
+      <c r="X2" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>34.53</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.4362735996688056</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.4168940721693182</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.4431534398654331</v>
+      </c>
+      <c r="AC2" t="n">
         <v>112.664261808203</v>
       </c>
-      <c r="T2" t="n">
-        <v>1.78751974682336</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="AD2" t="n">
         <v>107.659649652943</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AE2" t="n">
         <v>114.4409269965157</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="n">
+        <v>8.256103515625</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>8.1279296875</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8.639892578125</v>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_128x64_64x6_tn_align8&gt;(cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_128x64_64x6_tn_align8::Params)', 'stream': 7, 'count': 48, 'total_duration_us': np.float64(399.136), 'mean_duration_us': np.float64(8.315333333333333), 'median_duration_us': np.float64(8.256), 'std_dev_duration_us': np.float64(0.13305517861231703), 'min_duration_us': np.float64(8.128), 'max_duration_us': np.float64(8.64)}]</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_b...', 'stream': 7, 'mean_duration_us': np.float64(8.32)}]</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[[768], [788, 768], [768, 768], [], []]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[[1], [768, 1], [1, 768], [], []]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>['', '', '', '1', '1']</t>
-        </is>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.315348307291666</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8.256103515625</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.1344482499064346</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>8.1279296875</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>8.639892578125</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>399.13671875</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>30</v>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>{'M': 788, 'N': 768, 'K': 768, 'bias': True, 'stride_A': (768, 1), 'stride_B': (1, 768), 'dtype_A_B': ('c10::BFloat16', 'c10::BFloat16'), 'B': 1}</t>
+        </is>
+      </c>
+      <c r="AL2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>32.57437687604667</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>32.57437687604667</v>
       </c>
     </row>
     <row r="3">
@@ -2234,128 +2903,140 @@
           <t>aten::addmm</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>788</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3072</v>
-      </c>
-      <c r="D3" t="n">
-        <v>768</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>((3072,), (788, 768), (768, 3072), (), ())</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>((1,), (768, 1), (1, 768), (), ())</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(768, 1)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>(1, 768)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>('c10::BFloat16', 'c10::BFloat16')</t>
-        </is>
+          <t>('', '', '', '1', '1')</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>104</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>469.666</v>
       </c>
       <c r="J3" t="n">
+        <v>39.13883333333333</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.635353997448167</v>
+      </c>
+      <c r="L3" t="n">
         <v>3.720671232</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>10.27734375</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>345.2554161915621</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
         <v>0.7763136653796865</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.775993800442447</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>0.00587259665798289</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.7601972840093</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.783180839516687</v>
       </c>
       <c r="R3" t="n">
         <v>268.0264976358607</v>
       </c>
       <c r="S3" t="n">
+        <v>2.027545803277043</v>
+      </c>
+      <c r="T3" t="n">
+        <v>13.88246663411458</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1063651301764554</v>
+      </c>
+      <c r="V3" t="n">
+        <v>166.589599609375</v>
+      </c>
+      <c r="W3" t="n">
+        <v>38.6155</v>
+      </c>
+      <c r="X3" t="n">
+        <v>37.56</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>43.91</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.775993800442447</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.7601972840093</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.783180839516687</v>
+      </c>
+      <c r="AC3" t="n">
         <v>267.9160625338291</v>
       </c>
-      <c r="T3" t="n">
-        <v>2.027545803277043</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="AD3" t="n">
         <v>262.462229678326</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AE3" t="n">
         <v>270.3974267005908</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="n">
+        <v>13.887451171875</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13.760009765625</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>14.176025390625</v>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize128x128x64_warpgroupsize1x1x1_execute_segment_k_off_kernel__5x_cublas', 'stream': 7, 'count': 12, 'total_duration_us': np.float64(166.59), 'mean_duration_us': np.float64(13.8825), 'median_duration_us': np.float64(13.8875), 'std_dev_duration_us': np.float64(0.10183278777813505), 'min_duration_us': np.float64(13.76), 'max_duration_us': np.float64(14.176)}]</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize128x128x64_warp...', 'stream': 7, 'mean_duration_us': np.float64(13.88)}]</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[[3072], [788, 768], [768, 3072], [], []]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[[1], [768, 1], [1, 768], [], []]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>['', '', '', '1', '1']</t>
-        </is>
-      </c>
-      <c r="AC3" t="n">
-        <v>13.88246663411458</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>13.887451171875</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.1063651301764554</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>13.760009765625</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>14.176025390625</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>166.589599609375</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>104</v>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>{'M': 788, 'N': 3072, 'K': 768, 'bias': True, 'stride_A': (768, 1), 'stride_B': (1, 768), 'dtype_A_B': ('c10::BFloat16', 'c10::BFloat16'), 'B': 1}</t>
+        </is>
+      </c>
+      <c r="AL3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>13.59572333585382</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>46.1701002119005</v>
       </c>
     </row>
     <row r="4">
@@ -2364,252 +3045,1280 @@
           <t>aten::addmm</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>788</v>
-      </c>
-      <c r="C4" t="n">
-        <v>768</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3072</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>((768,), (788, 3072), (3072, 768), (), ())</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>((1,), (3072, 1), (1, 3072), (), ())</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(3072, 1)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>(1, 3072)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>('c10::BFloat16', 'c10::BFloat16')</t>
-        </is>
+          <t>('', '', '', '1', '1')</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>114</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>430.237</v>
       </c>
       <c r="J4" t="n">
+        <v>35.85308333333334</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.536968564857183</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.71885568</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>10.27294921875</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>345.2345643804363</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
         <v>0.7959277904370671</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.7986396051796765</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.01027516892316802</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.7720786905349362</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.8072521530270598</v>
       </c>
       <c r="R4" t="n">
         <v>274.781784009824</v>
       </c>
       <c r="S4" t="n">
+        <v>3.547343467125292</v>
+      </c>
+      <c r="T4" t="n">
+        <v>13.53594970703125</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.1773776572326171</v>
+      </c>
+      <c r="V4" t="n">
+        <v>162.431396484375</v>
+      </c>
+      <c r="W4" t="n">
+        <v>34.531</v>
+      </c>
+      <c r="X4" t="n">
+        <v>33.86</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.7986396051796765</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.7720786905349362</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.8072521530270598</v>
+      </c>
+      <c r="AC4" t="n">
         <v>275.7179961911693</v>
       </c>
-      <c r="T4" t="n">
-        <v>3.547343467125292</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="AD4" t="n">
         <v>266.5482503942464</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AE4" t="n">
         <v>278.6913453954663</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AF4" t="n">
+        <v>13.4879150390625</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13.343994140625</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>13.951904296875</v>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize128x64x64_warpgroupsize1x1x1_execute_segment_k_off_kernel__5x_cublas', 'stream': 7, 'count': 12, 'total_duration_us': np.float64(162.43200000000002), 'mean_duration_us': np.float64(13.536000000000001), 'median_duration_us': np.float64(13.488), 'std_dev_duration_us': np.float64(0.16983128883296716), 'min_duration_us': np.float64(13.344), 'max_duration_us': np.float64(13.952)}]</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize128x64x64_warpg...', 'stream': 7, 'mean_duration_us': np.float64(13.54)}]</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>[[768], [788, 3072], [3072, 768], [], []]</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>[[1], [3072, 1], [1, 3072], [], []]</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>['', '', '', '1', '1']</t>
-        </is>
-      </c>
-      <c r="AC4" t="n">
-        <v>13.53594970703125</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>13.4879150390625</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.1773776572326171</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13.343994140625</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13.951904296875</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>162.431396484375</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>114</v>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>{'M': 788, 'N': 768, 'K': 3072, 'bias': True, 'stride_A': (3072, 1), 'stride_B': (1, 3072), 'dtype_A_B': ('c10::BFloat16', 'c10::BFloat16'), 'B': 1}</t>
+        </is>
+      </c>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>13.25636373961045</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>59.42646395151095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>aten::convolution</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CONV_fwd</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>((4, 3, 224, 224), (768, 3, 16, 16), (768,), (), (), (), (), (), ())</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'ScalarList', 'ScalarList', 'ScalarList', 'Scalar', 'ScalarList', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>((150528, 50176, 224, 1), (768, 256, 16, 1), (1,), (), (), (), (), (), ())</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>('', '', '', '[16, 16]', '[0, 0]', '[1, 1]', 'False', '[0, 0]', '1')</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>101.661</v>
+      </c>
+      <c r="J5" t="n">
+        <v>101.661</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>0.924844032</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.421875</v>
+      </c>
+      <c r="N5" t="n">
+        <v>257.7534246575343</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>0.02768590506403035</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>7.136136844997193</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>129.60009765625</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>129.60009765625</v>
+      </c>
+      <c r="W5" t="n">
+        <v>101.661</v>
+      </c>
+      <c r="X5" t="n">
+        <v>101.661</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>101.661</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.02768590506403035</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.02768590506403035</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.02768590506403035</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.136136844997193</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.136136844997193</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>7.136136844997193</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>129.60009765625</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>129.60009765625</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>129.60009765625</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>[{'name': 'Memset (Device)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.272), 'mean_duration_us': np.float64(2.272), 'median_duration_us': np.float64(2.272), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.272), 'max_duration_us': np.float64(2.272)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16, __nv_bfloat16, float, false, true, (cudnnKernelDataType_t)0&gt;(cudnn::engines_precompiled::nchw2nhwc_params_t&lt;float&gt;, __nv_bfloat16 const*, __nv_bfloat16*)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(10.464), 'mean_duration_us': np.float64(10.464), 'median_duration_us': np.float64(10.464), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(10.464), 'max_duration_us': np.float64(10.464)}, {'name': 'Memset (Device)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.112), 'mean_duration_us': np.float64(2.112), 'median_duration_us': np.float64(2.112), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.112), 'max_duration_us': np.float64(2.112)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16, __nv_bfloat16, float, false, true, (cudnnKernelDataType_t)0&gt;(cudnn::engines_precompiled::nchw2nhwc_params_t&lt;float&gt;, __nv_bfloat16 const*, __nv_bfloat16*)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(10.4), 'mean_duration_us': np.float64(10.4), 'median_duration_us': np.float64(10.4), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(10.4), 'max_duration_us': np.float64(10.4)}, {'name': 'void cutlass__5x_cudnn::Kernel&lt;cutlass_tensorop_bf16_s16816fprop_optimized_bf16_256x64_32x4_nhwc_align8&gt;(cutlass_tensorop_bf16_s16816fprop_optimized_bf16_256x64_32x4_nhwc_align8::Params)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(98.176), 'mean_duration_us': np.float64(98.176), 'median_duration_us': np.float64(98.176), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(98.176), 'max_duration_us': np.float64(98.176)}, {'name': 'void cudnn::engines_precompiled::nhwcToNchwKernel&lt;__nv_bfloat16, __nv_bfloat16, float, true, false, (cudnnKernelDataType_t)0&gt;(cudnn::engines_precompiled::nhwc2nchw_params_t&lt;float&gt;, __nv_bfloat16 const*, __nv_bfloat16*)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.208), 'mean_duration_us': np.float64(2.208), 'median_duration_us': np.float64(2.208), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.208), 'max_duration_us': np.float64(2.208)}, {'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1})', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.968), 'mean_duration_us': np.float64(3.968), 'median_duration_us': np.float64(3.968), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.968), 'max_duration_us': np.float64(3.968)}]</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>[{'name': 'Memset (Device)', 'stream': 7, 'mean_duration_us': np.float64(2.27)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16,...', 'stream': 7, 'mean_duration_us': np.float64(10.46)}, {'name': 'Memset (Device)', 'stream': 7, 'mean_duration_us': np.float64(2.11)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16,...', 'stream': 7, 'mean_duration_us': np.float64(10.4)}, {'name': 'void cutlass__5x_cudnn::Kernel&lt;cutlass_tensorop_bf16_s16816fprop...', 'stream': 7, 'mean_duration_us': np.float64(98.18)}, {'name': 'void cudnn::engines_precompiled::nhwcToNchwKernel&lt;__nv_bfloat16,...', 'stream': 7, 'mean_duration_us': np.float64(2.21)}, {'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kern...', 'stream': 7, 'mean_duration_us': np.float64(3.97)}]</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>{'convNd': 'conv2d', 'input_shape': (4, 3, 224, 224), 'filter_shape': (768, 3, 16, 16), 'dtype_input_weight': ('c10::BFloat16', 'c10::BFloat16'), 'input_stride': (150528, 50176, 224, 1), 'weight_stride': (768, 256, 16, 1), 'bias': False, 'stride': (16, 16), 'padding': (0, 0), 'dilation': (1, 1), 'transposed_conv': False, 'output_padding': (0, 0), 'groups': 1}</t>
+        </is>
+      </c>
+      <c r="AL5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>10.57693323091974</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>70.00339718243069</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>aten::_scaled_dot_product_flash_attention</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SDPA_fwd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>((4, 12, 197, 64), (4, 12, 197, 64), (4, 12, 197, 64), (), (), (), ())</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar', 'Scalar', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>((151296, 64, 768, 1), (151296, 64, 768, 1), (151296, 64, 768, 1), (), (), (), ())</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>('', '', '', '0.', 'False', 'False', '0.125')</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>61</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>491.448</v>
+      </c>
+      <c r="J6" t="n">
+        <v>40.954</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.08990247706355</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.476884992</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.6171875</v>
+      </c>
+      <c r="N6" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>0.4731315968327939</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.01022134818763448</v>
+      </c>
+      <c r="R6" t="n">
+        <v>46.60346228803019</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.006802796481996</v>
+      </c>
+      <c r="T6" t="n">
+        <v>10.23734537760417</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.228442528412397</v>
+      </c>
+      <c r="V6" t="n">
+        <v>122.84814453125</v>
+      </c>
+      <c r="W6" t="n">
+        <v>40.6005</v>
+      </c>
+      <c r="X6" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>47.251</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.4735411097882475</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.4463049830531362</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.4833683350070687</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>46.64379931414237</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>43.96104083073391</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>47.61178099819627</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>10.2239990234375</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10.01611328125</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10.847900390625</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_kernel_traits&lt;64, 128, 128, 4, false, false, cutlass::bfloat16_t, pytorch_flash::Flash_kernel_traits&lt;64, 128, 128, 4, cutlass::bfloat16_t&gt; &gt;, false, false, false, false, false, true, false&gt;(pytorch_flash::Flash_fwd_params)', 'stream': 7, 'count': 12, 'total_duration_us': np.float64(122.848), 'mean_duration_us': np.float64(10.237333333333334), 'median_duration_us': np.float64(10.224), 'std_dev_duration_us': np.float64(0.21878045819699932), 'min_duration_us': np.float64(10.016), 'max_duration_us': np.float64(10.848)}]</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_ke...', 'stream': 7, 'mean_duration_us': np.float64(10.24)}]</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>{'B': 4, 'N_Q': 197, 'H_Q': 12, 'N_KV': 197, 'H_KV': 12, 'd_h_qk': 64, 'd_h_v': 64, 'dropout': 0.0, 'causal': False, 'flash_impl': True}</t>
+        </is>
+      </c>
+      <c r="AL6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>10.02589230832071</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>80.0292894907514</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>aten::layer_norm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NORM_fwd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>((4, 197, 768), (), (768,), (768,), (), ())</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'ScalarList', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>((151296, 768, 1), (), (1,), (1,), (), ())</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>('', '[768]', '', '', '9.9999999999999998e-13', 'True')</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>616.799</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24.67196</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.70387186086915</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.003030528</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.3173828125</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.247155499367889</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5466261436434106</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0136524750083966</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.6817278011431411</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.01702675928670446</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.448037109375</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.1115342775722907</v>
+      </c>
+      <c r="V7" t="n">
+        <v>111.200927734375</v>
+      </c>
+      <c r="W7" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="X7" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>33.221</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.5463023981557714</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.5237086762430939</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.5709334820168646</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.6813240401778364</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.6531461556432518</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.7120428318705904</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>4.447998046875</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>4.256103515625</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>4.639892578125</v>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 7, 'count': 25, 'total_duration_us': np.float64(111.20100000000001), 'mean_duration_us': np.float64(4.448040000000001), 'median_duration_us': np.float64(4.448), 'std_dev_duration_us': np.float64(0.10934037863479323), 'min_duration_us': np.float64(4.256), 'max_duration_us': np.float64(4.64)}]</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 7, 'mean_duration_us': np.float64(4.45)}]</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>{'op_shape': (4, 197, 768), 'dtype_in_out': ('c10::BFloat16', None), 'stride_input': (151296, 768, 1), 'stride_output': None, 'num_channels': 768, 'has_bias': True, 'is_affine': True, 'is_training': True}</t>
+        </is>
+      </c>
+      <c r="AL7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>9.075338746907917</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>89.10462823765931</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>aten::gelu</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>((4, 197, 3072), ())</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', '')</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>((605184, 3072, 1), ())</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>('', '')</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>107</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12</v>
+      </c>
+      <c r="I8" t="n">
+        <v>153.193</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.76608333333333</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.932567892985548</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>5.04510498046875</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.03943788318148379</v>
+      </c>
+      <c r="V8" t="n">
+        <v>60.541259765625</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11.9605</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="n">
+        <v>5.055419921875</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>4.990966796875</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5.1201171875</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 7, 'count': 12, 'total_duration_us': np.float64(60.541999999999994), 'mean_duration_us': np.float64(5.045166666666666), 'median_duration_us': np.float64(5.0555), 'std_dev_duration_us': np.float64(0.037739972914080884), 'min_duration_us': np.float64(4.991), 'max_duration_us': np.float64(5.12)}]</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::Ge...', 'stream': 7, 'mean_duration_us': np.float64(5.05)}]</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>4.940897991876649</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>94.04552622953597</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>aten::add</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>((4, 197, 768), (4, 197, 768), ())</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>((151296, 768, 1), (151296, 768, 1), ())</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>('', '', '1')</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>90</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24</v>
+      </c>
+      <c r="I9" t="n">
+        <v>298.853</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.45220833333333</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4364494073142128</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.000605184</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.462890625</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>1.628184728894159</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.02497608869878607</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.2713641214823599</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.00416268144979767</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.230662027994792</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.03450867810431143</v>
+      </c>
+      <c r="V9" t="n">
+        <v>53.535888671875</v>
+      </c>
+      <c r="W9" t="n">
+        <v>12.405</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.632412270219935</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.576030728409452</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.668686411309323</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.2720687117033225</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.262671788068242</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.2781144018848872</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>2.2244873046875</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2.176025390625</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>2.303955078125</v>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 7, 'count': 24, 'total_duration_us': np.float64(53.536), 'mean_duration_us': np.float64(2.2306666666666666), 'median_duration_us': np.float64(2.2245), 'std_dev_duration_us': np.float64(0.033798011118341686), 'min_duration_us': np.float64(2.176), 'max_duration_us': np.float64(2.304)}]</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CU...', 'stream': 7, 'mean_duration_us': np.float64(2.23)}]</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>{'shape_in1': (4, 197, 768), 'shape_in2': (4, 197, 768), 'dtype_in1_in2_out': ('c10::BFloat16', 'c10::BFloat16', None), 'stride_input1': (151296, 768, 1), 'stride_input2': (151296, 768, 1), 'stride_output': None}</t>
+        </is>
+      </c>
+      <c r="AL9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>4.369175102338875</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>98.41470133187484</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aten::cat</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>(((4, 1, 768), (4, 196, 768)), ())</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>('TensorList', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(((0, 768, 1), (150528, 1, 196)), ())</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>('', '1')</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="J10" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>7.263916015625</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>7.263916015625</v>
+      </c>
+      <c r="W10" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="n">
+        <v>7.263916015625</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7.263916015625</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7.263916015625</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::CatArrayBatchedCopy&lt;at::native::(anonymous namespace)::OpaqueType&lt;2u&gt;, unsigned int, 3, 64, 64&gt;(at::native::(anonymous namespace)::OpaqueType&lt;2u&gt;*, at::native::(anonymous namespace)::CatArrInputTensorMetadata&lt;at::native::(anonymous namespace)::OpaqueType&lt;2u&gt;, unsigned int, 64, 64&gt;, at::native::(anonymous namespace)::TensorSizeStride&lt;unsigned int, 4u&gt;, int, unsigned int)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(7.264), 'mean_duration_us': np.float64(7.264), 'median_duration_us': np.float64(7.264), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(7.264), 'max_duration_us': np.float64(7.264)}]</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::CatArrayBatchedCopy&lt;at::...', 'stream': 7, 'mean_duration_us': np.float64(7.26)}]</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.5928232777729626</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>99.0075246096478</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>aten::addmm</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>768</v>
-      </c>
-      <c r="D5" t="n">
-        <v>768</v>
-      </c>
-      <c r="E5" t="b">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>((768,), (4, 768), (768, 768), (), ())</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>((1,), (151296, 1), (1, 768), (), ())</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>('', '', '', '1', '1')</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1256</v>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(151296, 1)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>(1, 768)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>('c10::BFloat16', 'c10::BFloat16')</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I11" t="n">
+        <v>31.331</v>
+      </c>
+      <c r="J11" t="n">
+        <v>31.331</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>0.004721664</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.13818359375</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.956241956241956</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>0.1734973492333901</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.6863974923339013</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>6.87890625</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>6.87890625</v>
+      </c>
+      <c r="W11" t="n">
+        <v>31.331</v>
+      </c>
+      <c r="X11" t="n">
+        <v>31.331</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>31.331</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.1734973492333901</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.1734973492333901</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.1734973492333901</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.6863974923339013</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.6863974923339013</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.6863974923339013</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>6.87890625</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>6.87890625</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6.87890625</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8&gt;(cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8::Params)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(6.879), 'mean_duration_us': np.float64(6.879), 'median_duration_us': np.float64(6.879), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(6.879), 'max_duration_us': np.float64(6.879)}]</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_b...', 'stream': 7, 'mean_duration_us': np.float64(6.88)}]</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>{'M': 4, 'N': 768, 'K': 768, 'bias': True, 'stride_A': (151296, 1), 'stride_B': (1, 768), 'dtype_A_B': ('c10::BFloat16', 'c10::BFloat16'), 'B': 1}</t>
+        </is>
+      </c>
+      <c r="AL11" t="b">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.004721664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.13818359375</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.956241956241956</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.1734973492333901</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.1734973492333901</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
-        <v>0.1734973492333901</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.1734973492333901</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.6863974923339013</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.6863974923339013</v>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>0.6863974923339013</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.6863974923339013</v>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8&gt;(cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8::Params)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(6.879), 'mean_duration_us': np.float64(6.879), 'median_duration_us': np.float64(6.879), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(6.879), 'max_duration_us': np.float64(6.879)}]</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_b...', 'stream': 7, 'mean_duration_us': np.float64(6.88)}]</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>[[768], [4, 768], [768, 768], [], []]</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>[[1], [151296, 1], [1, 768], [], []]</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>['', '', '', '1', '1']</t>
-        </is>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.87890625</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.87890625</v>
-      </c>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="n">
-        <v>6.87890625</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>6.87890625</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.87890625</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AM11" t="n">
+        <v>0.5614018308920443</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>99.56892644053984</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>aten::add</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>((4, 197, 768), (1, 197, 768), ())</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>((151296, 768, 1), (151296, 768, 1), ())</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>('', '', '1')</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>15</v>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>1256</v>
+      <c r="I12" t="n">
+        <v>10.421</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10.421</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>0.000605184</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.59716796875</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0.7210103734729494</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.1602245274384332</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>3.777099609375</v>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>3.777099609375</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10.421</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10.421</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10.421</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.7210103734729494</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.7210103734729494</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.7210103734729494</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.1602245274384332</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.1602245274384332</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.1602245274384332</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>3.777099609375</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3.777099609375</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>3.777099609375</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1})', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.777), 'mean_duration_us': np.float64(3.777), 'median_duration_us': np.float64(3.777), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.777), 'max_duration_us': np.float64(3.777)}]</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kern...', 'stream': 7, 'mean_duration_us': np.float64(3.78)}]</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>{'shape_in1': (4, 197, 768), 'shape_in2': (1, 197, 768), 'dtype_in1_in2_out': ('c10::BFloat16', 'c10::BFloat16', None), 'stride_input1': (151296, 768, 1), 'stride_input2': (151296, 768, 1), 'stride_output': None}</t>
+        </is>
+      </c>
+      <c r="AL12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.3082569465407019</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>99.87718338708055</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>aten::tanh</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>((4, 768),)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16',)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>((768, 1),)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>('',)</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1258</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>1.5048828125</v>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="n">
+        <v>1.5048828125</v>
+      </c>
+      <c r="W13" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="n">
+        <v>1.5048828125</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1.5048828125</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.5048828125</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::tanh_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::tanh_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(1.505), 'mean_duration_us': np.float64(1.505), 'median_duration_us': np.float64(1.505), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(1.505), 'max_duration_us': np.float64(1.505)}]</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::ta...', 'stream': 7, 'mean_duration_us': np.float64(1.5)}]</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.1228166129194549</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +4332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2639,185 +4348,180 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>param: M</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>param: N</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>param: K</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>param: bias</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param: stride_A</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>param: stride_B</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>param: dtype_A_B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>param: B</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>param: N_Q</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>param: H_Q</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>param: N_KV</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>param: H_KV</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>param: d_h_qk</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>param: d_h_v</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>param: dropout</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>param: causal</t>
+          <t>GFLOPS_first</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>param: flash_impl</t>
+          <t>Data Moved (MB)_first</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>GFLOPS_first</t>
+          <t>FLOPS/Byte_first</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Data Moved (MB)_first</t>
+          <t>TB/s_mean</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>FLOPS/Byte_first</t>
+          <t>TB/s_median</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_mean</t>
+          <t>TB/s_std</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_median</t>
+          <t>TB/s_min</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_std</t>
+          <t>TB/s_max</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_min</t>
+          <t>TFLOPS/s_mean</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_max</t>
+          <t>TFLOPS/s_median</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_mean</t>
+          <t>TFLOPS/s_std</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_median</t>
+          <t>TFLOPS/s_min</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_std</t>
+          <t>TFLOPS/s_max</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_min</t>
+          <t>Compute Spec</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_max</t>
+          <t>kernel_details__summarize_kernel_stats</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>kernel_details__summarize_kernel_stats</t>
+          <t>trunc_kernel_details</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>trunc_kernel_details</t>
+          <t>Input Dims_first</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Input Dims_first</t>
+          <t>Input type_first</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Input type_first</t>
+          <t>Input Strides_first</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Input Strides_first</t>
+          <t>Concrete Inputs_first</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Concrete Inputs_first</t>
+          <t>Kernel Time (µs)_mean</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_mean</t>
+          <t>Kernel Time (µs)_median</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_median</t>
+          <t>Kernel Time (µs)_std</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_std</t>
+          <t>Kernel Time (µs)_min</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_min</t>
+          <t>Kernel Time (µs)_max</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_max</t>
+          <t>Kernel Time (µs)_sum</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_sum</t>
+          <t>name_count</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>name_count</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>UID_first</t>
         </is>
@@ -2826,131 +4530,575 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aten::_scaled_dot_product_flash_attention</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>197</v>
-      </c>
-      <c r="D2" t="n">
+          <t>aten::addmm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(768, 1)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(1, 768)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16')</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0.930167808</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.43505859375</v>
+      </c>
+      <c r="L2" t="n">
+        <v>258.2422174840085</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4332748290550287</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.4362735996688056</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.006921872667601486</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.4168940721693182</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.4431534398654331</v>
+      </c>
+      <c r="R2" t="n">
+        <v>111.8898526351753</v>
+      </c>
+      <c r="S2" t="n">
+        <v>112.664261808203</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.78751974682336</v>
+      </c>
+      <c r="U2" t="n">
+        <v>107.659649652943</v>
+      </c>
+      <c r="V2" t="n">
+        <v>114.4409269965157</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_128x64_64x6_tn_align8&gt;(cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_128x64_64x6_tn_align8::Params)', 'stream': 7, 'count': 48, 'total_duration_us': np.float64(399.136), 'mean_duration_us': np.float64(8.315333333333333), 'median_duration_us': np.float64(8.256), 'std_dev_duration_us': np.float64(0.13305517861231703), 'min_duration_us': np.float64(8.128), 'max_duration_us': np.float64(8.64)}]</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_b...', 'stream': 7, 'mean_duration_us': np.float64(8.32)}]</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>[[768], [788, 768], [768, 768], [], []]</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[[1], [768, 1], [1, 768], [], []]</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>['', '', '', '1', '1']</t>
+        </is>
+      </c>
+      <c r="AD2" t="n">
+        <v>8.315348307291666</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>8.256103515625</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.1344482499064346</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>8.1279296875</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8.639892578125</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>399.13671875</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aten::addmm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(768, 1)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(1, 768)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16')</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>3.720671232</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.27734375</v>
+      </c>
+      <c r="L3" t="n">
+        <v>345.2554161915621</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7763136653796865</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.775993800442447</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00587259665798289</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.7601972840093</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.783180839516687</v>
+      </c>
+      <c r="R3" t="n">
+        <v>268.0264976358607</v>
+      </c>
+      <c r="S3" t="n">
+        <v>267.9160625338291</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.027545803277043</v>
+      </c>
+      <c r="U3" t="n">
+        <v>262.462229678326</v>
+      </c>
+      <c r="V3" t="n">
+        <v>270.3974267005908</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize128x128x64_warpgroupsize1x1x1_execute_segment_k_off_kernel__5x_cublas', 'stream': 7, 'count': 12, 'total_duration_us': np.float64(166.59), 'mean_duration_us': np.float64(13.8825), 'median_duration_us': np.float64(13.8875), 'std_dev_duration_us': np.float64(0.10183278777813505), 'min_duration_us': np.float64(13.76), 'max_duration_us': np.float64(14.176)}]</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize128x128x64_warp...', 'stream': 7, 'mean_duration_us': np.float64(13.88)}]</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>[[3072], [788, 768], [768, 3072], [], []]</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>[[1], [768, 1], [1, 768], [], []]</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>['', '', '', '1', '1']</t>
+        </is>
+      </c>
+      <c r="AD3" t="n">
+        <v>13.88246663411458</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13.887451171875</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.1063651301764554</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13.760009765625</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>14.176025390625</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>166.589599609375</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="n">
-        <v>197</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="AK3" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>aten::addmm</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3072, 1)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(1, 3072)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16')</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>3.71885568</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.27294921875</v>
+      </c>
+      <c r="L4" t="n">
+        <v>345.2345643804363</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7959277904370671</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.7986396051796765</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01027516892316802</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.7720786905349362</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.8072521530270598</v>
+      </c>
+      <c r="R4" t="n">
+        <v>274.781784009824</v>
+      </c>
+      <c r="S4" t="n">
+        <v>275.7179961911693</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.547343467125292</v>
+      </c>
+      <c r="U4" t="n">
+        <v>266.5482503942464</v>
+      </c>
+      <c r="V4" t="n">
+        <v>278.6913453954663</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize128x64x64_warpgroupsize1x1x1_execute_segment_k_off_kernel__5x_cublas', 'stream': 7, 'count': 12, 'total_duration_us': np.float64(162.43200000000002), 'mean_duration_us': np.float64(13.536000000000001), 'median_duration_us': np.float64(13.488), 'std_dev_duration_us': np.float64(0.16983128883296716), 'min_duration_us': np.float64(13.344), 'max_duration_us': np.float64(13.952)}]</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize128x64x64_warpg...', 'stream': 7, 'mean_duration_us': np.float64(13.54)}]</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>[[768], [788, 3072], [3072, 768], [], []]</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>[[1], [3072, 1], [1, 3072], [], []]</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>['', '', '', '1', '1']</t>
+        </is>
+      </c>
+      <c r="AD4" t="n">
+        <v>13.53594970703125</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13.4879150390625</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.1773776572326171</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13.343994140625</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>13.951904296875</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>162.431396484375</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>12</v>
       </c>
-      <c r="G2" t="n">
-        <v>64</v>
-      </c>
-      <c r="H2" t="n">
-        <v>64</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
+      <c r="AK4" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>aten::addmm</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(151296, 1)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(1, 768)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16')</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0.004721664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.13818359375</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.956241956241956</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1734973492333901</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1734973492333901</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>0.1734973492333901</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.1734973492333901</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.6863974923339013</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.6863974923339013</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>0.6863974923339013</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.6863974923339013</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8&gt;(cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8::Params)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(6.879), 'mean_duration_us': np.float64(6.879), 'median_duration_us': np.float64(6.879), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(6.879), 'max_duration_us': np.float64(6.879)}]</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_b...', 'stream': 7, 'mean_duration_us': np.float64(6.88)}]</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>[[768], [4, 768], [768, 768], [], []]</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>[[1], [151296, 1], [1, 768], [], []]</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>['', '', '', '1', '1']</t>
+        </is>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.87890625</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6.87890625</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="n">
+        <v>6.87890625</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.87890625</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.87890625</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.476884992</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.6171875</v>
-      </c>
-      <c r="N2" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.4731315968327939</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.4735411097882475</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.01022134818763448</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.4463049830531362</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.4833683350070687</v>
-      </c>
-      <c r="T2" t="n">
-        <v>46.60346228803019</v>
-      </c>
-      <c r="U2" t="n">
-        <v>46.64379931414237</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.006802796481996</v>
-      </c>
-      <c r="W2" t="n">
-        <v>43.96104083073391</v>
-      </c>
-      <c r="X2" t="n">
-        <v>47.61178099819627</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_kernel_traits&lt;64, 128, 128, 4, false, false, cutlass::bfloat16_t, pytorch_flash::Flash_kernel_traits&lt;64, 128, 128, 4, cutlass::bfloat16_t&gt; &gt;, false, false, false, false, false, true, false&gt;(pytorch_flash::Flash_fwd_params)', 'stream': 7, 'count': 12, 'total_duration_us': np.float64(122.848), 'mean_duration_us': np.float64(10.237333333333334), 'median_duration_us': np.float64(10.224), 'std_dev_duration_us': np.float64(0.21878045819699932), 'min_duration_us': np.float64(10.016), 'max_duration_us': np.float64(10.848)}]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_ke...', 'stream': 7, 'mean_duration_us': np.float64(10.24)}]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[[4, 12, 197, 64], [4, 12, 197, 64], [4, 12, 197, 64], [], [], [], []]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar', 'Scalar', 'Scalar']</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[[151296, 64, 768, 1], [151296, 64, 768, 1], [151296, 64, 768, 1], [], [], [], []]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>['', '', '', '0.', 'False', 'False', '0.125']</t>
-        </is>
-      </c>
-      <c r="AE2" t="n">
-        <v>10.23734537760417</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>10.2239990234375</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.228442528412397</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10.01611328125</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>10.847900390625</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>122.84814453125</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>61</v>
+      <c r="AK5" t="n">
+        <v>1256</v>
       </c>
     </row>
   </sheetData>
@@ -2964,7 +5112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2980,200 +5128,190 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>param: convNd</t>
+          <t>param: B</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>param: input_shape</t>
+          <t>param: N_Q</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>param: filter_shape</t>
+          <t>param: H_Q</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>param: dtype_input_weight</t>
+          <t>param: N_KV</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>param: input_stride</t>
+          <t>param: H_KV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>param: weight_stride</t>
+          <t>param: d_h_qk</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>param: bias</t>
+          <t>param: d_h_v</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>param: stride</t>
+          <t>param: dropout</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>param: padding</t>
+          <t>param: causal</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>param: dilation</t>
+          <t>param: flash_impl</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>param: transposed_conv</t>
+          <t>GFLOPS_first</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>param: output_padding</t>
+          <t>Data Moved (MB)_first</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>param: groups</t>
+          <t>FLOPS/Byte_first</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>GFLOPS_first</t>
+          <t>TB/s_mean</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Data Moved (MB)_first</t>
+          <t>TB/s_median</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>FLOPS/Byte_first</t>
+          <t>TB/s_std</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_mean</t>
+          <t>TB/s_min</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_median</t>
+          <t>TB/s_max</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_std</t>
+          <t>TFLOPS/s_mean</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_min</t>
+          <t>TFLOPS/s_median</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_max</t>
+          <t>TFLOPS/s_std</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_mean</t>
+          <t>TFLOPS/s_min</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_median</t>
+          <t>TFLOPS/s_max</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_std</t>
+          <t>Compute Spec</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_min</t>
+          <t>kernel_details__summarize_kernel_stats</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_max</t>
+          <t>trunc_kernel_details</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>kernel_details__summarize_kernel_stats</t>
+          <t>Input Dims_first</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>trunc_kernel_details</t>
+          <t>Input type_first</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Input Dims_first</t>
+          <t>Input Strides_first</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Input type_first</t>
+          <t>Concrete Inputs_first</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Input Strides_first</t>
+          <t>Kernel Time (µs)_mean</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Concrete Inputs_first</t>
+          <t>Kernel Time (µs)_median</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_mean</t>
+          <t>Kernel Time (µs)_std</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_median</t>
+          <t>Kernel Time (µs)_min</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_std</t>
+          <t>Kernel Time (µs)_max</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_min</t>
+          <t>Kernel Time (µs)_sum</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_max</t>
+          <t>name_count</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Kernel Time (µs)_sum</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>name_count</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>UID_first</t>
         </is>
@@ -3182,154 +5320,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aten::convolution</t>
+          <t>aten::_scaled_dot_product_flash_attention</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>conv2d</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(4, 3, 224, 224)</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(768, 3, 16, 16)</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>('c10::BFloat16', 'c10::BFloat16')</t>
+          <t>197</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(150528, 50176, 224, 1)</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(768, 256, 16, 1)</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>(16, 16)</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
-        </is>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>(0, 0)</t>
-        </is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.476884992</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.6171875</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>98.5</v>
       </c>
       <c r="O2" t="n">
-        <v>0.924844032</v>
+        <v>0.4731315968327939</v>
       </c>
       <c r="P2" t="n">
-        <v>3.421875</v>
+        <v>0.4735411097882475</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.7534246575343</v>
+        <v>0.01022134818763448</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02768590506403035</v>
+        <v>0.4463049830531362</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02768590506403035</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>0.4833683350070687</v>
+      </c>
+      <c r="T2" t="n">
+        <v>46.60346228803019</v>
+      </c>
       <c r="U2" t="n">
-        <v>0.02768590506403035</v>
+        <v>46.64379931414237</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02768590506403035</v>
+        <v>1.006802796481996</v>
       </c>
       <c r="W2" t="n">
-        <v>7.136136844997193</v>
+        <v>43.96104083073391</v>
       </c>
       <c r="X2" t="n">
-        <v>7.136136844997193</v>
+        <v>47.61178099819627</v>
       </c>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
-        <v>7.136136844997193</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>7.136136844997193</v>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_kernel_traits&lt;64, 128, 128, 4, false, false, cutlass::bfloat16_t, pytorch_flash::Flash_kernel_traits&lt;64, 128, 128, 4, cutlass::bfloat16_t&gt; &gt;, false, false, false, false, false, true, false&gt;(pytorch_flash::Flash_fwd_params)', 'stream': 7, 'count': 12, 'total_duration_us': np.float64(122.848), 'mean_duration_us': np.float64(10.237333333333334), 'median_duration_us': np.float64(10.224), 'std_dev_duration_us': np.float64(0.21878045819699932), 'min_duration_us': np.float64(10.016), 'max_duration_us': np.float64(10.848)}]</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_ke...', 'stream': 7, 'mean_duration_us': np.float64(10.24)}]</t>
+        </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>[{'name': 'Memset (Device)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.272), 'mean_duration_us': np.float64(2.272), 'median_duration_us': np.float64(2.272), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.272), 'max_duration_us': np.float64(2.272)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16, __nv_bfloat16, float, false, true, (cudnnKernelDataType_t)0&gt;(cudnn::engines_precompiled::nchw2nhwc_params_t&lt;float&gt;, __nv_bfloat16 const*, __nv_bfloat16*)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(10.464), 'mean_duration_us': np.float64(10.464), 'median_duration_us': np.float64(10.464), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(10.464), 'max_duration_us': np.float64(10.464)}, {'name': 'Memset (Device)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.112), 'mean_duration_us': np.float64(2.112), 'median_duration_us': np.float64(2.112), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.112), 'max_duration_us': np.float64(2.112)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16, __nv_bfloat16, float, false, true, (cudnnKernelDataType_t)0&gt;(cudnn::engines_precompiled::nchw2nhwc_params_t&lt;float&gt;, __nv_bfloat16 const*, __nv_bfloat16*)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(10.4), 'mean_duration_us': np.float64(10.4), 'median_duration_us': np.float64(10.4), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(10.4), 'max_duration_us': np.float64(10.4)}, {'name': 'void cutlass__5x_cudnn::Kernel&lt;cutlass_tensorop_bf16_s16816fprop_optimized_bf16_256x64_32x4_nhwc_align8&gt;(cutlass_tensorop_bf16_s16816fprop_optimized_bf16_256x64_32x4_nhwc_align8::Params)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(98.176), 'mean_duration_us': np.float64(98.176), 'median_duration_us': np.float64(98.176), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(98.176), 'max_duration_us': np.float64(98.176)}, {'name': 'void cudnn::engines_precompiled::nhwcToNchwKernel&lt;__nv_bfloat16, __nv_bfloat16, float, true, false, (cudnnKernelDataType_t)0&gt;(cudnn::engines_precompiled::nhwc2nchw_params_t&lt;float&gt;, __nv_bfloat16 const*, __nv_bfloat16*)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.208), 'mean_duration_us': np.float64(2.208), 'median_duration_us': np.float64(2.208), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.208), 'max_duration_us': np.float64(2.208)}, {'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1})', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.968), 'mean_duration_us': np.float64(3.968), 'median_duration_us': np.float64(3.968), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.968), 'max_duration_us': np.float64(3.968)}]</t>
+          <t>[[4, 12, 197, 64], [4, 12, 197, 64], [4, 12, 197, 64], [], [], [], []]</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>[{'name': 'Memset (Device)', 'stream': 7, 'mean_duration_us': np.float64(2.27)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16,...', 'stream': 7, 'mean_duration_us': np.float64(10.46)}, {'name': 'Memset (Device)', 'stream': 7, 'mean_duration_us': np.float64(2.11)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16,...', 'stream': 7, 'mean_duration_us': np.float64(10.4)}, {'name': 'void cutlass__5x_cudnn::Kernel&lt;cutlass_tensorop_bf16_s16816fprop...', 'stream': 7, 'mean_duration_us': np.float64(98.18)}, {'name': 'void cudnn::engines_precompiled::nhwcToNchwKernel&lt;__nv_bfloat16,...', 'stream': 7, 'mean_duration_us': np.float64(2.21)}, {'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kern...', 'stream': 7, 'mean_duration_us': np.float64(3.97)}]</t>
+          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar', 'Scalar', 'Scalar']</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>[[4, 3, 224, 224], [768, 3, 16, 16], [768], [], [], [], [], [], []]</t>
+          <t>[[151296, 64, 768, 1], [151296, 64, 768, 1], [151296, 64, 768, 1], [], [], [], []]</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'ScalarList', 'ScalarList', 'ScalarList', 'Scalar', 'ScalarList', 'Scalar']</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[[150528, 50176, 224, 1], [768, 256, 16, 1], [1], [], [], [], [], [], []]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>['', '', '', '[16, 16]', '[0, 0]', '[1, 1]', 'False', '[0, 0]', '1']</t>
-        </is>
+          <t>['', '', '', '0.', 'False', 'False', '0.125']</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>10.23734537760417</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>10.2239990234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>129.60009765625</v>
+        <v>0.228442528412397</v>
       </c>
       <c r="AI2" t="n">
-        <v>129.60009765625</v>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
+        <v>10.01611328125</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>10.847900390625</v>
+      </c>
       <c r="AK2" t="n">
-        <v>129.60009765625</v>
+        <v>122.84814453125</v>
       </c>
       <c r="AL2" t="n">
-        <v>129.60009765625</v>
+        <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>129.60009765625</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +5479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3359,165 +5495,205 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>param: shape_in1</t>
+          <t>param: convNd</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>param: shape_in2</t>
+          <t>param: input_shape</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>param: dtype_in1_in2_out</t>
+          <t>param: filter_shape</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>param: stride_input1</t>
+          <t>param: dtype_input_weight</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>param: stride_input2</t>
+          <t>param: input_stride</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>param: stride_output</t>
+          <t>param: weight_stride</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>param: bias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>param: stride</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>param: padding</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>param: dilation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>param: transposed_conv</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>param: output_padding</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>param: groups</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>GFLOPS_first</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Data Moved (MB)_first</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>FLOPS/Byte_first</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>TB/s_mean</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>TB/s_median</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>TB/s_std</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>TB/s_min</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>TB/s_max</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_mean</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_median</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_std</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_min</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_max</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Compute Spec</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>kernel_details__summarize_kernel_stats</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>trunc_kernel_details</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Input Dims_first</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Input type_first</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Input Strides_first</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Concrete Inputs_first</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Kernel Time (µs)_mean</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Kernel Time (µs)_median</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Kernel Time (µs)_std</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Kernel Time (µs)_min</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Kernel Time (µs)_max</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Kernel Time (µs)_sum</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>name_count</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>UID_first</t>
         </is>
@@ -3526,6 +5702,366 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>aten::convolution</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>conv2d</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>(4, 3, 224, 224)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>(768, 3, 16, 16)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16')</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(150528, 50176, 224, 1)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(768, 256, 16, 1)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>0.924844032</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.421875</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>257.7534246575343</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.02768590506403035</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.02768590506403035</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>0.02768590506403035</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.02768590506403035</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.136136844997193</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7.136136844997193</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="n">
+        <v>7.136136844997193</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>7.136136844997193</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>[{'name': 'Memset (Device)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.272), 'mean_duration_us': np.float64(2.272), 'median_duration_us': np.float64(2.272), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.272), 'max_duration_us': np.float64(2.272)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16, __nv_bfloat16, float, false, true, (cudnnKernelDataType_t)0&gt;(cudnn::engines_precompiled::nchw2nhwc_params_t&lt;float&gt;, __nv_bfloat16 const*, __nv_bfloat16*)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(10.464), 'mean_duration_us': np.float64(10.464), 'median_duration_us': np.float64(10.464), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(10.464), 'max_duration_us': np.float64(10.464)}, {'name': 'Memset (Device)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.112), 'mean_duration_us': np.float64(2.112), 'median_duration_us': np.float64(2.112), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.112), 'max_duration_us': np.float64(2.112)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16, __nv_bfloat16, float, false, true, (cudnnKernelDataType_t)0&gt;(cudnn::engines_precompiled::nchw2nhwc_params_t&lt;float&gt;, __nv_bfloat16 const*, __nv_bfloat16*)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(10.4), 'mean_duration_us': np.float64(10.4), 'median_duration_us': np.float64(10.4), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(10.4), 'max_duration_us': np.float64(10.4)}, {'name': 'void cutlass__5x_cudnn::Kernel&lt;cutlass_tensorop_bf16_s16816fprop_optimized_bf16_256x64_32x4_nhwc_align8&gt;(cutlass_tensorop_bf16_s16816fprop_optimized_bf16_256x64_32x4_nhwc_align8::Params)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(98.176), 'mean_duration_us': np.float64(98.176), 'median_duration_us': np.float64(98.176), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(98.176), 'max_duration_us': np.float64(98.176)}, {'name': 'void cudnn::engines_precompiled::nhwcToNchwKernel&lt;__nv_bfloat16, __nv_bfloat16, float, true, false, (cudnnKernelDataType_t)0&gt;(cudnn::engines_precompiled::nhwc2nchw_params_t&lt;float&gt;, __nv_bfloat16 const*, __nv_bfloat16*)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.208), 'mean_duration_us': np.float64(2.208), 'median_duration_us': np.float64(2.208), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.208), 'max_duration_us': np.float64(2.208)}, {'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1})', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.968), 'mean_duration_us': np.float64(3.968), 'median_duration_us': np.float64(3.968), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.968), 'max_duration_us': np.float64(3.968)}]</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>[{'name': 'Memset (Device)', 'stream': 7, 'mean_duration_us': np.float64(2.27)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16,...', 'stream': 7, 'mean_duration_us': np.float64(10.46)}, {'name': 'Memset (Device)', 'stream': 7, 'mean_duration_us': np.float64(2.11)}, {'name': 'void cudnn::engines_precompiled::nchwToNhwcKernel&lt;__nv_bfloat16,...', 'stream': 7, 'mean_duration_us': np.float64(10.4)}, {'name': 'void cutlass__5x_cudnn::Kernel&lt;cutlass_tensorop_bf16_s16816fprop...', 'stream': 7, 'mean_duration_us': np.float64(98.18)}, {'name': 'void cudnn::engines_precompiled::nhwcToNchwKernel&lt;__nv_bfloat16,...', 'stream': 7, 'mean_duration_us': np.float64(2.21)}, {'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kern...', 'stream': 7, 'mean_duration_us': np.float64(3.97)}]</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>[[4, 3, 224, 224], [768, 3, 16, 16], [768], [], [], [], [], [], []]</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'ScalarList', 'ScalarList', 'ScalarList', 'Scalar', 'ScalarList', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>[[150528, 50176, 224, 1], [768, 256, 16, 1], [1], [], [], [], [], [], []]</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>['', '', '', '[16, 16]', '[0, 0]', '[1, 1]', 'False', '[0, 0]', '1']</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v>129.60009765625</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>129.60009765625</v>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>129.60009765625</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>129.60009765625</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>129.60009765625</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AI4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>param: shape_in1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>param: shape_in2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>param: dtype_in1_in2_out</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>param: stride_input1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param: stride_input2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>param: stride_output</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>GFLOPS_first</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Data Moved (MB)_first</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FLOPS/Byte_first</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_median</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_std</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_min</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_max</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_mean</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_median</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_std</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_min</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_max</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Compute Spec</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>kernel_details__summarize_kernel_stats</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>trunc_kernel_details</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Input Dims_first</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Input type_first</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Input Strides_first</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Concrete Inputs_first</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_mean</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_median</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_std</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_min</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_max</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_sum</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>name_count</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>UID_first</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>aten::add</t>
         </is>
       </c>
@@ -3554,7 +6090,11 @@
           <t>(151296, 768, 1)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="H2" t="n">
         <v>0.000605184</v>
       </c>
@@ -3596,56 +6136,61 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 7, 'count': 24, 'total_duration_us': np.float64(53.536), 'mean_duration_us': np.float64(2.2306666666666666), 'median_duration_us': np.float64(2.2245), 'std_dev_duration_us': np.float64(0.033798011118341686), 'min_duration_us': np.float64(2.176), 'max_duration_us': np.float64(2.304)}]</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CU...', 'stream': 7, 'mean_duration_us': np.float64(2.23)}]</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>[[4, 197, 768], [4, 197, 768], []]</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>['c10::BFloat16', 'c10::BFloat16', 'Scalar']</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>[[151296, 768, 1], [151296, 768, 1], []]</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>['', '', '1']</t>
         </is>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>2.230662027994792</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>2.2244873046875</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.03450867810431143</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>2.176025390625</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>2.303955078125</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>53.535888671875</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>24</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3680,7 +6225,11 @@
           <t>(768, 1, 1, 1)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="H3" t="n">
         <v>0.000602112</v>
       </c>
@@ -3718,44 +6267,46 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1})', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.968), 'mean_duration_us': np.float64(3.968), 'median_duration_us': np.float64(3.968), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.968), 'max_duration_us': np.float64(3.968)}]</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kern...', 'stream': 7, 'mean_duration_us': np.float64(3.97)}]</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>[[4, 768, 14, 14], [1, 768, 1, 1], []]</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>['c10::BFloat16', 'c10::BFloat16', 'Scalar']</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>[[150528, 196, 14, 1], [768, 1, 1, 1], []]</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>['', '', '1']</t>
         </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>3.968017578125</v>
       </c>
       <c r="AB3" t="n">
         <v>3.968017578125</v>
       </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
+      <c r="AC3" t="n">
         <v>3.968017578125</v>
       </c>
+      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
         <v>3.968017578125</v>
       </c>
@@ -3763,9 +6314,12 @@
         <v>3.968017578125</v>
       </c>
       <c r="AG3" t="n">
+        <v>3.968017578125</v>
+      </c>
+      <c r="AH3" t="n">
         <v>1</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3800,7 +6354,11 @@
           <t>(151296, 768, 1)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="H4" t="n">
         <v>0.000605184</v>
       </c>
@@ -3838,44 +6396,46 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int)#1})', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.777), 'mean_duration_us': np.float64(3.777), 'median_duration_us': np.float64(3.777), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.777), 'max_duration_us': np.float64(3.777)}]</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kern...', 'stream': 7, 'mean_duration_us': np.float64(3.78)}]</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>[[4, 197, 768], [1, 197, 768], []]</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>['c10::BFloat16', 'c10::BFloat16', 'Scalar']</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>[[151296, 768, 1], [151296, 768, 1], []]</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>['', '', '1']</t>
         </is>
-      </c>
-      <c r="AA4" t="n">
-        <v>3.777099609375</v>
       </c>
       <c r="AB4" t="n">
         <v>3.777099609375</v>
       </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
+      <c r="AC4" t="n">
         <v>3.777099609375</v>
       </c>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
         <v>3.777099609375</v>
       </c>
@@ -3883,9 +6443,12 @@
         <v>3.777099609375</v>
       </c>
       <c r="AG4" t="n">
+        <v>3.777099609375</v>
+      </c>
+      <c r="AH4" t="n">
         <v>1</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>15</v>
       </c>
     </row>
